--- a/dataanalysis/data/predictions/1400/09121440_1442.xlsx
+++ b/dataanalysis/data/predictions/1400/09121440_1442.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="157">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-12</t>
   </si>
   <si>
@@ -482,12 +485,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -845,13 +842,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AI79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,19 +951,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-0.55</v>
@@ -984,7 +984,7 @@
         <v>100306.72</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -1025,8 +1025,23 @@
       <c r="W2">
         <v>-0.06</v>
       </c>
+      <c r="X2">
+        <v>20.02</v>
+      </c>
+      <c r="Y2">
+        <v>15.11</v>
+      </c>
+      <c r="Z2">
+        <v>19.45</v>
+      </c>
       <c r="AC2" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1034,22 +1049,25 @@
       <c r="AG2">
         <v>3.603927135467529</v>
       </c>
-      <c r="AH2" t="s">
-        <v>156</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300014</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>2.09</v>
@@ -1067,7 +1085,7 @@
         <v>857125.12</v>
       </c>
       <c r="J3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K3">
         <v>6</v>
@@ -1108,8 +1126,23 @@
       <c r="W3">
         <v>0.15</v>
       </c>
+      <c r="X3">
+        <v>0.15</v>
+      </c>
+      <c r="Y3">
+        <v>80.94</v>
+      </c>
+      <c r="Z3">
+        <v>10.57</v>
+      </c>
       <c r="AC3" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1117,22 +1150,25 @@
       <c r="AG3">
         <v>6.934836864471436</v>
       </c>
-      <c r="AH3" t="s">
-        <v>156</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300049</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-0.82</v>
@@ -1150,7 +1186,7 @@
         <v>93910.94</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K4">
         <v>12</v>
@@ -1191,8 +1227,23 @@
       <c r="W4">
         <v>-0.25</v>
       </c>
+      <c r="X4">
+        <v>20.01</v>
+      </c>
+      <c r="Y4">
+        <v>82.23999999999999</v>
+      </c>
+      <c r="Z4">
+        <v>19.8</v>
+      </c>
       <c r="AC4" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1200,22 +1251,25 @@
       <c r="AG4">
         <v>-2.42872953414917</v>
       </c>
-      <c r="AH4" t="s">
-        <v>156</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300068</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-4.85</v>
@@ -1233,7 +1287,7 @@
         <v>319252.89</v>
       </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1274,8 +1328,23 @@
       <c r="W5">
         <v>-1.12</v>
       </c>
+      <c r="X5">
+        <v>-2.46</v>
+      </c>
+      <c r="Y5">
+        <v>20.73</v>
+      </c>
+      <c r="Z5">
+        <v>3.65</v>
+      </c>
       <c r="AC5" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1283,22 +1352,25 @@
       <c r="AG5">
         <v>12.208571434021</v>
       </c>
-      <c r="AH5" t="s">
-        <v>156</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300085</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0.71</v>
@@ -1316,7 +1388,7 @@
         <v>453300.68</v>
       </c>
       <c r="J6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1357,8 +1429,23 @@
       <c r="W6">
         <v>-0.49</v>
       </c>
+      <c r="X6">
+        <v>-1.04</v>
+      </c>
+      <c r="Y6">
+        <v>55.88</v>
+      </c>
+      <c r="Z6">
+        <v>1.69</v>
+      </c>
       <c r="AC6" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1366,22 +1453,25 @@
       <c r="AG6">
         <v>6.148509502410889</v>
       </c>
-      <c r="AH6" t="s">
-        <v>156</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300139</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>3.21</v>
@@ -1399,7 +1489,7 @@
         <v>271134.34</v>
       </c>
       <c r="J7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -1440,8 +1530,23 @@
       <c r="W7">
         <v>-0.86</v>
       </c>
+      <c r="X7">
+        <v>-5.18</v>
+      </c>
+      <c r="Y7">
+        <v>27.4</v>
+      </c>
+      <c r="Z7">
+        <v>-1.01</v>
+      </c>
       <c r="AC7" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1449,22 +1554,25 @@
       <c r="AG7">
         <v>-6.789196014404297</v>
       </c>
-      <c r="AH7" t="s">
-        <v>156</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300184</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>2.98</v>
@@ -1482,7 +1590,7 @@
         <v>199442.46</v>
       </c>
       <c r="J8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1523,8 +1631,23 @@
       <c r="W8">
         <v>0.78</v>
       </c>
+      <c r="X8">
+        <v>-1.54</v>
+      </c>
+      <c r="Y8">
+        <v>12.75</v>
+      </c>
+      <c r="Z8">
+        <v>2.49</v>
+      </c>
       <c r="AC8" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1532,22 +1655,25 @@
       <c r="AG8">
         <v>17.41092109680176</v>
       </c>
-      <c r="AH8" t="s">
-        <v>156</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300207</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>2.71</v>
@@ -1565,7 +1691,7 @@
         <v>355059.17</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K9">
         <v>6</v>
@@ -1606,8 +1732,23 @@
       <c r="W9">
         <v>-0.11</v>
       </c>
+      <c r="X9">
+        <v>0.42</v>
+      </c>
+      <c r="Y9">
+        <v>30.6</v>
+      </c>
+      <c r="Z9">
+        <v>6.18</v>
+      </c>
       <c r="AC9" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1615,22 +1756,25 @@
       <c r="AG9">
         <v>4.252782821655273</v>
       </c>
-      <c r="AH9" t="s">
-        <v>156</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300237</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>7.69</v>
@@ -1648,7 +1792,7 @@
         <v>112725.44</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K10">
         <v>12</v>
@@ -1689,8 +1833,23 @@
       <c r="W10">
         <v>0.84</v>
       </c>
+      <c r="X10">
+        <v>9.94</v>
+      </c>
+      <c r="Y10">
+        <v>4.1</v>
+      </c>
+      <c r="Z10">
+        <v>12.64</v>
+      </c>
       <c r="AC10" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1698,22 +1857,25 @@
       <c r="AG10">
         <v>5.277398586273193</v>
       </c>
-      <c r="AH10" t="s">
-        <v>156</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300252</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>13.19</v>
@@ -1731,7 +1893,7 @@
         <v>353224.22</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1772,8 +1934,23 @@
       <c r="W11">
         <v>-2.44</v>
       </c>
+      <c r="X11">
+        <v>-3.78</v>
+      </c>
+      <c r="Y11">
+        <v>16.36</v>
+      </c>
+      <c r="Z11">
+        <v>0.37</v>
+      </c>
       <c r="AC11" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -1781,22 +1958,25 @@
       <c r="AG11">
         <v>3.729790925979614</v>
       </c>
-      <c r="AH11" t="s">
-        <v>156</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300274</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-2.07</v>
@@ -1814,7 +1994,7 @@
         <v>1410107.6</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K12">
         <v>8</v>
@@ -1855,8 +2035,23 @@
       <c r="W12">
         <v>-0.38</v>
       </c>
+      <c r="X12">
+        <v>2.05</v>
+      </c>
+      <c r="Y12">
+        <v>149.32</v>
+      </c>
+      <c r="Z12">
+        <v>11.02</v>
+      </c>
       <c r="AC12" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1864,22 +2059,25 @@
       <c r="AG12">
         <v>-9.875822067260742</v>
       </c>
-      <c r="AH12" t="s">
-        <v>156</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300290</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>1.13</v>
@@ -1897,7 +2095,7 @@
         <v>86566.14999999999</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K13">
         <v>4</v>
@@ -1938,8 +2136,23 @@
       <c r="W13">
         <v>0.19</v>
       </c>
+      <c r="X13">
+        <v>16.73</v>
+      </c>
+      <c r="Y13">
+        <v>31.99</v>
+      </c>
+      <c r="Z13">
+        <v>18.83</v>
+      </c>
       <c r="AC13" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1947,22 +2160,25 @@
       <c r="AG13">
         <v>13.0372896194458</v>
       </c>
-      <c r="AH13" t="s">
-        <v>156</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300308</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-3.46</v>
@@ -1980,7 +2196,7 @@
         <v>1832527.46</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K14">
         <v>44</v>
@@ -2021,8 +2237,23 @@
       <c r="W14">
         <v>-0.08</v>
       </c>
+      <c r="X14">
+        <v>-3.33</v>
+      </c>
+      <c r="Y14">
+        <v>419.97</v>
+      </c>
+      <c r="Z14">
+        <v>-1.13</v>
+      </c>
       <c r="AC14" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2030,22 +2261,25 @@
       <c r="AG14">
         <v>-3.472718715667725</v>
       </c>
-      <c r="AH14" t="s">
-        <v>156</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300324</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>7.8</v>
@@ -2063,7 +2297,7 @@
         <v>244008.86</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -2104,8 +2338,23 @@
       <c r="W15">
         <v>0.62</v>
       </c>
+      <c r="X15">
+        <v>1.54</v>
+      </c>
+      <c r="Y15">
+        <v>7.48</v>
+      </c>
+      <c r="Z15">
+        <v>4.03</v>
+      </c>
       <c r="AC15" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2113,22 +2362,25 @@
       <c r="AG15">
         <v>1.807342290878296</v>
       </c>
-      <c r="AH15" t="s">
-        <v>156</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300409</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-1.46</v>
@@ -2146,7 +2398,7 @@
         <v>287074.66</v>
       </c>
       <c r="J16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K16">
         <v>20</v>
@@ -2187,8 +2439,23 @@
       <c r="W16">
         <v>-1.26</v>
       </c>
+      <c r="X16">
+        <v>-2.44</v>
+      </c>
+      <c r="Y16">
+        <v>27.09</v>
+      </c>
+      <c r="Z16">
+        <v>2.93</v>
+      </c>
       <c r="AC16" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2196,22 +2463,25 @@
       <c r="AG16">
         <v>173.7696685791016</v>
       </c>
-      <c r="AH16" t="s">
-        <v>156</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300438</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>4.03</v>
@@ -2229,7 +2499,7 @@
         <v>185039.07</v>
       </c>
       <c r="J17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2270,8 +2540,23 @@
       <c r="W17">
         <v>0.41</v>
       </c>
+      <c r="X17">
+        <v>-1.55</v>
+      </c>
+      <c r="Y17">
+        <v>35.71</v>
+      </c>
+      <c r="Z17">
+        <v>5.71</v>
+      </c>
       <c r="AC17" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2279,22 +2564,25 @@
       <c r="AG17">
         <v>29.16592025756836</v>
       </c>
-      <c r="AH17" t="s">
-        <v>156</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300450</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-7.95</v>
@@ -2312,7 +2600,7 @@
         <v>1308472.83</v>
       </c>
       <c r="J18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K18">
         <v>11</v>
@@ -2353,8 +2641,23 @@
       <c r="W18">
         <v>-1.3</v>
       </c>
+      <c r="X18">
+        <v>1.44</v>
+      </c>
+      <c r="Y18">
+        <v>57.58</v>
+      </c>
+      <c r="Z18">
+        <v>4.03</v>
+      </c>
       <c r="AC18" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2362,22 +2665,25 @@
       <c r="AG18">
         <v>14.46645545959473</v>
       </c>
-      <c r="AH18" t="s">
-        <v>156</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300457</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>20.01</v>
@@ -2395,7 +2701,7 @@
         <v>244736.15</v>
       </c>
       <c r="J19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K19">
         <v>9</v>
@@ -2436,8 +2742,23 @@
       <c r="W19">
         <v>1.07</v>
       </c>
+      <c r="X19">
+        <v>3.53</v>
+      </c>
+      <c r="Y19">
+        <v>36.69</v>
+      </c>
+      <c r="Z19">
+        <v>9.85</v>
+      </c>
       <c r="AC19" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2445,22 +2766,25 @@
       <c r="AG19">
         <v>4.750394821166992</v>
       </c>
-      <c r="AH19" t="s">
-        <v>156</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300469</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-3.65</v>
@@ -2478,7 +2802,7 @@
         <v>88663.21000000001</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20">
         <v>17</v>
@@ -2519,8 +2843,23 @@
       <c r="W20">
         <v>-0.37</v>
       </c>
+      <c r="X20">
+        <v>13.83</v>
+      </c>
+      <c r="Y20">
+        <v>80.8</v>
+      </c>
+      <c r="Z20">
+        <v>16.88</v>
+      </c>
       <c r="AC20" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2528,22 +2867,25 @@
       <c r="AG20">
         <v>-0.7171452641487122</v>
       </c>
-      <c r="AH20" t="s">
-        <v>156</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300475</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>13.83</v>
@@ -2561,7 +2903,7 @@
         <v>584018.02</v>
       </c>
       <c r="J21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K21">
         <v>6</v>
@@ -2602,8 +2944,23 @@
       <c r="W21">
         <v>0.75</v>
       </c>
+      <c r="X21">
+        <v>2.26</v>
+      </c>
+      <c r="Y21">
+        <v>78.8</v>
+      </c>
+      <c r="Z21">
+        <v>7.31</v>
+      </c>
       <c r="AC21" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2611,22 +2968,25 @@
       <c r="AG21">
         <v>-1.891459822654724</v>
       </c>
-      <c r="AH21" t="s">
-        <v>156</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300476</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>1.86</v>
@@ -2644,7 +3004,7 @@
         <v>2174748.06</v>
       </c>
       <c r="J22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K22">
         <v>68</v>
@@ -2685,8 +3045,23 @@
       <c r="W22">
         <v>-0.06</v>
       </c>
+      <c r="X22">
+        <v>-2.95</v>
+      </c>
+      <c r="Y22">
+        <v>339</v>
+      </c>
+      <c r="Z22">
+        <v>-1.53</v>
+      </c>
       <c r="AC22" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2694,22 +3069,25 @@
       <c r="AG22">
         <v>4.198929309844971</v>
       </c>
-      <c r="AH22" t="s">
-        <v>156</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300502</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-5.04</v>
@@ -2727,7 +3105,7 @@
         <v>1908390.71</v>
       </c>
       <c r="J23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2768,8 +3146,23 @@
       <c r="W23">
         <v>-0.33</v>
       </c>
+      <c r="X23">
+        <v>-2.15</v>
+      </c>
+      <c r="Y23">
+        <v>355.98</v>
+      </c>
+      <c r="Z23">
+        <v>-1.32</v>
+      </c>
       <c r="AC23" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2777,22 +3170,25 @@
       <c r="AG23">
         <v>16.42020034790039</v>
       </c>
-      <c r="AH23" t="s">
-        <v>156</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300528</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>16.83</v>
@@ -2810,7 +3206,7 @@
         <v>212386.25</v>
       </c>
       <c r="J24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -2851,8 +3247,23 @@
       <c r="W24">
         <v>0</v>
       </c>
+      <c r="X24">
+        <v>10.65</v>
+      </c>
+      <c r="Y24">
+        <v>33.45</v>
+      </c>
+      <c r="Z24">
+        <v>10.54</v>
+      </c>
       <c r="AC24" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2860,22 +3271,25 @@
       <c r="AG24">
         <v>6.094986915588379</v>
       </c>
-      <c r="AH24" t="s">
-        <v>156</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300539</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-4.17</v>
@@ -2893,7 +3307,7 @@
         <v>75699.59</v>
       </c>
       <c r="J25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K25">
         <v>6</v>
@@ -2934,8 +3348,23 @@
       <c r="W25">
         <v>-1.39</v>
       </c>
+      <c r="X25">
+        <v>-0.8</v>
+      </c>
+      <c r="Y25">
+        <v>38.43</v>
+      </c>
+      <c r="Z25">
+        <v>2.59</v>
+      </c>
       <c r="AC25" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2943,22 +3372,25 @@
       <c r="AG25">
         <v>6.82684326171875</v>
       </c>
-      <c r="AH25" t="s">
-        <v>156</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300604</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>3.98</v>
@@ -2976,7 +3408,7 @@
         <v>271808.49</v>
       </c>
       <c r="J26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K26">
         <v>13</v>
@@ -3017,8 +3449,23 @@
       <c r="W26">
         <v>0.25</v>
       </c>
+      <c r="X26">
+        <v>-2.17</v>
+      </c>
+      <c r="Y26">
+        <v>62.37</v>
+      </c>
+      <c r="Z26">
+        <v>1.5</v>
+      </c>
       <c r="AC26" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3026,22 +3473,25 @@
       <c r="AG26">
         <v>9.462665557861328</v>
       </c>
-      <c r="AH26" t="s">
-        <v>156</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300618</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>2.47</v>
@@ -3059,7 +3509,7 @@
         <v>197871.58</v>
       </c>
       <c r="J27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K27">
         <v>6</v>
@@ -3100,8 +3550,23 @@
       <c r="W27">
         <v>-0.09</v>
       </c>
+      <c r="X27">
+        <v>-3.9</v>
+      </c>
+      <c r="Y27">
+        <v>53.49</v>
+      </c>
+      <c r="Z27">
+        <v>-1.58</v>
+      </c>
       <c r="AC27" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3109,22 +3574,25 @@
       <c r="AG27">
         <v>3.865005493164062</v>
       </c>
-      <c r="AH27" t="s">
-        <v>156</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300619</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>5.72</v>
@@ -3142,7 +3610,7 @@
         <v>108382.44</v>
       </c>
       <c r="J28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -3183,8 +3651,23 @@
       <c r="W28">
         <v>0.58</v>
       </c>
+      <c r="X28">
+        <v>-5.95</v>
+      </c>
+      <c r="Y28">
+        <v>39</v>
+      </c>
+      <c r="Z28">
+        <v>-0.51</v>
+      </c>
       <c r="AC28" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3192,22 +3675,25 @@
       <c r="AG28">
         <v>2.526241540908813</v>
       </c>
-      <c r="AH28" t="s">
-        <v>156</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300680</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>5.94</v>
@@ -3225,7 +3711,7 @@
         <v>129122.1</v>
       </c>
       <c r="J29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3266,8 +3752,23 @@
       <c r="W29">
         <v>-0.08</v>
       </c>
+      <c r="X29">
+        <v>8.41</v>
+      </c>
+      <c r="Y29">
+        <v>63.65</v>
+      </c>
+      <c r="Z29">
+        <v>14.31</v>
+      </c>
       <c r="AC29" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3275,22 +3776,25 @@
       <c r="AG29">
         <v>5.866655826568604</v>
       </c>
-      <c r="AH29" t="s">
-        <v>156</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300701</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-3.43</v>
@@ -3308,7 +3812,7 @@
         <v>50186.3</v>
       </c>
       <c r="J30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3349,8 +3853,23 @@
       <c r="W30">
         <v>-1.06</v>
       </c>
+      <c r="X30">
+        <v>9.77</v>
+      </c>
+      <c r="Y30">
+        <v>15.11</v>
+      </c>
+      <c r="Z30">
+        <v>9.57</v>
+      </c>
       <c r="AC30" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3358,22 +3877,25 @@
       <c r="AG30">
         <v>8.25679874420166</v>
       </c>
-      <c r="AH30" t="s">
-        <v>156</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300757</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>9.69</v>
@@ -3391,7 +3913,7 @@
         <v>347273.16</v>
       </c>
       <c r="J31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K31">
         <v>15</v>
@@ -3432,8 +3954,23 @@
       <c r="W31">
         <v>0.31</v>
       </c>
+      <c r="X31">
+        <v>-2.83</v>
+      </c>
+      <c r="Y31">
+        <v>295.23</v>
+      </c>
+      <c r="Z31">
+        <v>1.57</v>
+      </c>
       <c r="AC31" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3441,22 +3978,25 @@
       <c r="AG31">
         <v>-1.678032875061035</v>
       </c>
-      <c r="AH31" t="s">
-        <v>156</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300790</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-0.79</v>
@@ -3474,7 +4014,7 @@
         <v>97591.88</v>
       </c>
       <c r="J32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K32">
         <v>9</v>
@@ -3515,8 +4055,23 @@
       <c r="W32">
         <v>0.41</v>
       </c>
+      <c r="X32">
+        <v>-2.91</v>
+      </c>
+      <c r="Y32">
+        <v>35.34</v>
+      </c>
+      <c r="Z32">
+        <v>0.34</v>
+      </c>
       <c r="AC32" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3524,22 +4079,25 @@
       <c r="AG32">
         <v>-13.01321125030518</v>
       </c>
-      <c r="AH32" t="s">
-        <v>156</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300827</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>1.54</v>
@@ -3557,7 +4115,7 @@
         <v>251093.2</v>
       </c>
       <c r="J33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K33">
         <v>7</v>
@@ -3598,8 +4156,23 @@
       <c r="W33">
         <v>0.09</v>
       </c>
+      <c r="X33">
+        <v>-2.49</v>
+      </c>
+      <c r="Y33">
+        <v>36.69</v>
+      </c>
+      <c r="Z33">
+        <v>6.91</v>
+      </c>
       <c r="AC33" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3607,22 +4180,25 @@
       <c r="AG33">
         <v>1.820613980293274</v>
       </c>
-      <c r="AH33" t="s">
-        <v>156</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300852</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>4.38</v>
@@ -3640,7 +4216,7 @@
         <v>114659.55</v>
       </c>
       <c r="J34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -3681,8 +4257,23 @@
       <c r="W34">
         <v>0.53</v>
       </c>
+      <c r="X34">
+        <v>-2.41</v>
+      </c>
+      <c r="Y34">
+        <v>46.49</v>
+      </c>
+      <c r="Z34">
+        <v>0.5600000000000001</v>
+      </c>
       <c r="AC34" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3690,22 +4281,25 @@
       <c r="AG34">
         <v>4.239570617675781</v>
       </c>
-      <c r="AH34" t="s">
-        <v>156</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300857</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-0.08</v>
@@ -3723,7 +4317,7 @@
         <v>325383.45</v>
       </c>
       <c r="J35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K35">
         <v>16</v>
@@ -3764,8 +4358,23 @@
       <c r="W35">
         <v>-0.34</v>
       </c>
+      <c r="X35">
+        <v>0.37</v>
+      </c>
+      <c r="Y35">
+        <v>141.79</v>
+      </c>
+      <c r="Z35">
+        <v>3.54</v>
+      </c>
       <c r="AC35" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3773,22 +4382,25 @@
       <c r="AG35">
         <v>3.461380481719971</v>
       </c>
-      <c r="AH35" t="s">
-        <v>156</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300859</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>2.62</v>
@@ -3806,7 +4418,7 @@
         <v>69249.59</v>
       </c>
       <c r="J36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K36">
         <v>4</v>
@@ -3847,8 +4459,23 @@
       <c r="W36">
         <v>0.51</v>
       </c>
+      <c r="X36">
+        <v>5.34</v>
+      </c>
+      <c r="Y36">
+        <v>52.8</v>
+      </c>
+      <c r="Z36">
+        <v>8.57</v>
+      </c>
       <c r="AC36" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3856,22 +4483,25 @@
       <c r="AG36">
         <v>1.022933602333069</v>
       </c>
-      <c r="AH36" t="s">
-        <v>156</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300918</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-3.99</v>
@@ -3889,7 +4519,7 @@
         <v>77305.47</v>
       </c>
       <c r="J37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3930,8 +4560,23 @@
       <c r="W37">
         <v>-0.26</v>
       </c>
+      <c r="X37">
+        <v>-1.83</v>
+      </c>
+      <c r="Y37">
+        <v>25.15</v>
+      </c>
+      <c r="Z37">
+        <v>3.37</v>
+      </c>
       <c r="AC37" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3939,22 +4584,25 @@
       <c r="AG37">
         <v>137.2258453369141</v>
       </c>
-      <c r="AH37" t="s">
-        <v>156</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300990</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>0.01</v>
@@ -3972,7 +4620,7 @@
         <v>60596.71</v>
       </c>
       <c r="J38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -4013,8 +4661,23 @@
       <c r="W38">
         <v>-0.31</v>
       </c>
+      <c r="X38">
+        <v>4.95</v>
+      </c>
+      <c r="Y38">
+        <v>85.44</v>
+      </c>
+      <c r="Z38">
+        <v>5.48</v>
+      </c>
       <c r="AC38" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4022,22 +4685,25 @@
       <c r="AG38">
         <v>-9.29290771484375</v>
       </c>
-      <c r="AH38" t="s">
-        <v>156</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300997</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-1.61</v>
@@ -4055,7 +4721,7 @@
         <v>38024.54</v>
       </c>
       <c r="J39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K39">
         <v>6</v>
@@ -4096,8 +4762,23 @@
       <c r="W39">
         <v>0.02</v>
       </c>
+      <c r="X39">
+        <v>-4.83</v>
+      </c>
+      <c r="Y39">
+        <v>20.28</v>
+      </c>
+      <c r="Z39">
+        <v>-2.36</v>
+      </c>
       <c r="AC39" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4105,22 +4786,25 @@
       <c r="AG39">
         <v>6.581630229949951</v>
       </c>
-      <c r="AH39" t="s">
-        <v>156</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301123</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-2.64</v>
@@ -4138,7 +4822,7 @@
         <v>98632.49000000001</v>
       </c>
       <c r="J40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -4179,8 +4863,23 @@
       <c r="W40">
         <v>-0.48</v>
       </c>
+      <c r="X40">
+        <v>-2.45</v>
+      </c>
+      <c r="Y40">
+        <v>48.01</v>
+      </c>
+      <c r="Z40">
+        <v>0.31</v>
+      </c>
       <c r="AC40" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4188,22 +4887,25 @@
       <c r="AG40">
         <v>3.105205297470093</v>
       </c>
-      <c r="AH40" t="s">
-        <v>156</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301150</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-7.64</v>
@@ -4221,7 +4923,7 @@
         <v>82386.3</v>
       </c>
       <c r="J41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K41">
         <v>9</v>
@@ -4262,8 +4964,23 @@
       <c r="W41">
         <v>-0.7</v>
       </c>
+      <c r="X41">
+        <v>20</v>
+      </c>
+      <c r="Y41">
+        <v>43.92</v>
+      </c>
+      <c r="Z41">
+        <v>19.19</v>
+      </c>
       <c r="AC41" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4271,22 +4988,25 @@
       <c r="AG41">
         <v>2.531036853790283</v>
       </c>
-      <c r="AH41" t="s">
-        <v>156</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301165</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>2.83</v>
@@ -4304,7 +5024,7 @@
         <v>130427.94</v>
       </c>
       <c r="J42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -4345,8 +5065,23 @@
       <c r="W42">
         <v>0.6</v>
       </c>
+      <c r="X42">
+        <v>1.14</v>
+      </c>
+      <c r="Y42">
+        <v>95.55</v>
+      </c>
+      <c r="Z42">
+        <v>3.62</v>
+      </c>
       <c r="AC42" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4354,22 +5089,25 @@
       <c r="AG42">
         <v>5.866453170776367</v>
       </c>
-      <c r="AH42" t="s">
-        <v>156</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301219</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>4.24</v>
@@ -4387,7 +5125,7 @@
         <v>91473.33</v>
       </c>
       <c r="J43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K43">
         <v>18</v>
@@ -4428,8 +5166,23 @@
       <c r="W43">
         <v>0.24</v>
       </c>
+      <c r="X43">
+        <v>-4.86</v>
+      </c>
+      <c r="Y43">
+        <v>73.43000000000001</v>
+      </c>
+      <c r="Z43">
+        <v>-0.8100000000000001</v>
+      </c>
       <c r="AC43" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4437,22 +5190,25 @@
       <c r="AG43">
         <v>6.134808540344238</v>
       </c>
-      <c r="AH43" t="s">
-        <v>156</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301251</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>2.04</v>
@@ -4470,7 +5226,7 @@
         <v>57898.26</v>
       </c>
       <c r="J44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -4511,8 +5267,23 @@
       <c r="W44">
         <v>-0.42</v>
       </c>
+      <c r="X44">
+        <v>-1.93</v>
+      </c>
+      <c r="Y44">
+        <v>61.65</v>
+      </c>
+      <c r="Z44">
+        <v>1.07</v>
+      </c>
       <c r="AC44" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4520,22 +5291,25 @@
       <c r="AG44">
         <v>-9.693389892578125</v>
       </c>
-      <c r="AH44" t="s">
-        <v>156</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301307</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>3.98</v>
@@ -4553,7 +5327,7 @@
         <v>61640.8</v>
       </c>
       <c r="J45" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -4594,8 +5368,23 @@
       <c r="W45">
         <v>0.29</v>
       </c>
+      <c r="X45">
+        <v>2.78</v>
+      </c>
+      <c r="Y45">
+        <v>35.87</v>
+      </c>
+      <c r="Z45">
+        <v>9.789999999999999</v>
+      </c>
       <c r="AC45" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4603,22 +5392,25 @@
       <c r="AG45">
         <v>1.421992659568787</v>
       </c>
-      <c r="AH45" t="s">
-        <v>156</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301377</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>4.86</v>
@@ -4636,7 +5428,7 @@
         <v>111384.19</v>
       </c>
       <c r="J46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4677,8 +5469,23 @@
       <c r="W46">
         <v>1.93</v>
       </c>
+      <c r="X46">
+        <v>-2.38</v>
+      </c>
+      <c r="Y46">
+        <v>89.38</v>
+      </c>
+      <c r="Z46">
+        <v>-0.25</v>
+      </c>
       <c r="AC46" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4686,22 +5493,25 @@
       <c r="AG46">
         <v>4.861749172210693</v>
       </c>
-      <c r="AH46" t="s">
-        <v>156</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301389</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>3.8</v>
@@ -4719,7 +5529,7 @@
         <v>156139.14</v>
       </c>
       <c r="J47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -4760,8 +5570,23 @@
       <c r="W47">
         <v>1.67</v>
       </c>
+      <c r="X47">
+        <v>-2.64</v>
+      </c>
+      <c r="Y47">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="Z47">
+        <v>0.16</v>
+      </c>
       <c r="AC47" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4769,22 +5594,25 @@
       <c r="AG47">
         <v>2.009412527084351</v>
       </c>
-      <c r="AH47" t="s">
-        <v>156</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301397</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>5.93</v>
@@ -4802,7 +5630,7 @@
         <v>60652.78</v>
       </c>
       <c r="J48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -4843,8 +5671,23 @@
       <c r="W48">
         <v>-0.05</v>
       </c>
+      <c r="X48">
+        <v>-7.2</v>
+      </c>
+      <c r="Y48">
+        <v>47.3</v>
+      </c>
+      <c r="Z48">
+        <v>-1.27</v>
+      </c>
       <c r="AC48" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4852,22 +5695,25 @@
       <c r="AG48">
         <v>3.747770309448242</v>
       </c>
-      <c r="AH48" t="s">
-        <v>156</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301398</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-4.88</v>
@@ -4885,7 +5731,7 @@
         <v>51540.28</v>
       </c>
       <c r="J49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -4926,8 +5772,23 @@
       <c r="W49">
         <v>-0.96</v>
       </c>
+      <c r="X49">
+        <v>1.84</v>
+      </c>
+      <c r="Y49">
+        <v>53.89</v>
+      </c>
+      <c r="Z49">
+        <v>3.08</v>
+      </c>
       <c r="AC49" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4935,22 +5796,25 @@
       <c r="AG49">
         <v>117.4365921020508</v>
       </c>
-      <c r="AH49" t="s">
-        <v>156</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301413</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-1.75</v>
@@ -4968,7 +5832,7 @@
         <v>80789.25999999999</v>
       </c>
       <c r="J50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K50">
         <v>16</v>
@@ -5009,8 +5873,23 @@
       <c r="W50">
         <v>0.18</v>
       </c>
+      <c r="X50">
+        <v>5.44</v>
+      </c>
+      <c r="Y50">
+        <v>155</v>
+      </c>
+      <c r="Z50">
+        <v>9.5</v>
+      </c>
       <c r="AC50" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5018,22 +5897,25 @@
       <c r="AG50">
         <v>3.0627601146698</v>
       </c>
-      <c r="AH50" t="s">
-        <v>156</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301488</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>7.99</v>
@@ -5051,7 +5933,7 @@
         <v>124308.75</v>
       </c>
       <c r="J51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K51">
         <v>13</v>
@@ -5092,8 +5974,23 @@
       <c r="W51">
         <v>0.34</v>
       </c>
+      <c r="X51">
+        <v>11.96</v>
+      </c>
+      <c r="Y51">
+        <v>190.94</v>
+      </c>
+      <c r="Z51">
+        <v>20.25</v>
+      </c>
       <c r="AC51" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5101,22 +5998,25 @@
       <c r="AG51">
         <v>-8.088177680969238</v>
       </c>
-      <c r="AH51" t="s">
-        <v>156</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301489</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-2.53</v>
@@ -5134,7 +6034,7 @@
         <v>80208.78</v>
       </c>
       <c r="J52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K52">
         <v>4</v>
@@ -5175,8 +6075,23 @@
       <c r="W52">
         <v>-0.21</v>
       </c>
+      <c r="X52">
+        <v>-1.32</v>
+      </c>
+      <c r="Y52">
+        <v>219.83</v>
+      </c>
+      <c r="Z52">
+        <v>-0.34</v>
+      </c>
       <c r="AC52" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5184,22 +6099,25 @@
       <c r="AG52">
         <v>-0.3768328726291656</v>
       </c>
-      <c r="AH52" t="s">
-        <v>156</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301538</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>-4.69</v>
@@ -5217,7 +6135,7 @@
         <v>43489.01</v>
       </c>
       <c r="J53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K53">
         <v>5</v>
@@ -5258,8 +6176,23 @@
       <c r="W53">
         <v>-0.46</v>
       </c>
+      <c r="X53">
+        <v>-0.65</v>
+      </c>
+      <c r="Y53">
+        <v>96.5</v>
+      </c>
+      <c r="Z53">
+        <v>3</v>
+      </c>
       <c r="AC53" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5267,22 +6200,25 @@
       <c r="AG53">
         <v>6.095614910125732</v>
       </c>
-      <c r="AH53" t="s">
-        <v>156</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301617</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-2.15</v>
@@ -5300,7 +6236,7 @@
         <v>56788.55</v>
       </c>
       <c r="J54" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K54">
         <v>16</v>
@@ -5341,8 +6277,23 @@
       <c r="W54">
         <v>-0.41</v>
       </c>
+      <c r="X54">
+        <v>-2.67</v>
+      </c>
+      <c r="Y54">
+        <v>84.62</v>
+      </c>
+      <c r="Z54">
+        <v>2.96</v>
+      </c>
       <c r="AC54" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5350,22 +6301,25 @@
       <c r="AG54">
         <v>4.452615737915039</v>
       </c>
-      <c r="AH54" t="s">
-        <v>156</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688005</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>1.44</v>
@@ -5383,7 +6337,7 @@
         <v>138320.67</v>
       </c>
       <c r="J55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K55">
         <v>4</v>
@@ -5424,8 +6378,23 @@
       <c r="W55">
         <v>0.01</v>
       </c>
+      <c r="X55">
+        <v>-0.98</v>
+      </c>
+      <c r="Y55">
+        <v>31.7</v>
+      </c>
+      <c r="Z55">
+        <v>7.42</v>
+      </c>
       <c r="AC55" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5433,22 +6402,25 @@
       <c r="AG55">
         <v>1.824380397796631</v>
       </c>
-      <c r="AH55" t="s">
-        <v>156</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688006</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-5.97</v>
@@ -5466,7 +6438,7 @@
         <v>100592.47</v>
       </c>
       <c r="J56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K56">
         <v>10</v>
@@ -5507,8 +6479,23 @@
       <c r="W56">
         <v>-0.52</v>
       </c>
+      <c r="X56">
+        <v>1.68</v>
+      </c>
+      <c r="Y56">
+        <v>38.7</v>
+      </c>
+      <c r="Z56">
+        <v>2.9</v>
+      </c>
       <c r="AC56" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5516,22 +6503,25 @@
       <c r="AG56">
         <v>2.009717226028442</v>
       </c>
-      <c r="AH56" t="s">
-        <v>156</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688028</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>19.04</v>
@@ -5549,7 +6539,7 @@
         <v>102763.3</v>
       </c>
       <c r="J57" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K57">
         <v>5</v>
@@ -5590,8 +6580,23 @@
       <c r="W57">
         <v>-0.67</v>
       </c>
+      <c r="X57">
+        <v>4</v>
+      </c>
+      <c r="Y57">
+        <v>45.67</v>
+      </c>
+      <c r="Z57">
+        <v>2.31</v>
+      </c>
       <c r="AC57" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5599,22 +6604,25 @@
       <c r="AG57">
         <v>-3.010343551635742</v>
       </c>
-      <c r="AH57" t="s">
-        <v>156</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688041</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-0.05</v>
@@ -5632,7 +6640,7 @@
         <v>1706565.84</v>
       </c>
       <c r="J58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -5673,8 +6681,23 @@
       <c r="W58">
         <v>-0.18</v>
       </c>
+      <c r="X58">
+        <v>5.22</v>
+      </c>
+      <c r="Y58">
+        <v>241.88</v>
+      </c>
+      <c r="Z58">
+        <v>9.59</v>
+      </c>
       <c r="AC58" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5682,22 +6705,25 @@
       <c r="AG58">
         <v>-10.68834209442139</v>
       </c>
-      <c r="AH58" t="s">
-        <v>156</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688110</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>9.970000000000001</v>
@@ -5715,7 +6741,7 @@
         <v>333878.09</v>
       </c>
       <c r="J59" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -5756,8 +6782,23 @@
       <c r="W59">
         <v>0.12</v>
       </c>
+      <c r="X59">
+        <v>6.67</v>
+      </c>
+      <c r="Y59">
+        <v>118.79</v>
+      </c>
+      <c r="Z59">
+        <v>8.039999999999999</v>
+      </c>
       <c r="AC59" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5765,22 +6806,25 @@
       <c r="AG59">
         <v>7.642167091369629</v>
       </c>
-      <c r="AH59" t="s">
-        <v>156</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688135</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>6.1</v>
@@ -5798,7 +6842,7 @@
         <v>80425.16</v>
       </c>
       <c r="J60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K60">
         <v>9</v>
@@ -5839,8 +6883,23 @@
       <c r="W60">
         <v>-0.55</v>
       </c>
+      <c r="X60">
+        <v>-3.34</v>
+      </c>
+      <c r="Y60">
+        <v>29.82</v>
+      </c>
+      <c r="Z60">
+        <v>0.8100000000000001</v>
+      </c>
       <c r="AC60" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5848,22 +6907,25 @@
       <c r="AG60">
         <v>4.472126483917236</v>
       </c>
-      <c r="AH60" t="s">
-        <v>156</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688141</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>4.56</v>
@@ -5881,7 +6943,7 @@
         <v>74674.27</v>
       </c>
       <c r="J61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K61">
         <v>8</v>
@@ -5922,8 +6984,23 @@
       <c r="W61">
         <v>0.73</v>
       </c>
+      <c r="X61">
+        <v>-2.8</v>
+      </c>
+      <c r="Y61">
+        <v>58</v>
+      </c>
+      <c r="Z61">
+        <v>8.029999999999999</v>
+      </c>
       <c r="AC61" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5931,22 +7008,25 @@
       <c r="AG61">
         <v>0.523740291595459</v>
       </c>
-      <c r="AH61" t="s">
-        <v>156</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>688155</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-2.29</v>
@@ -5964,7 +7044,7 @@
         <v>39538.35</v>
       </c>
       <c r="J62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K62">
         <v>11</v>
@@ -6005,8 +7085,23 @@
       <c r="W62">
         <v>-0.05</v>
       </c>
+      <c r="X62">
+        <v>-2.77</v>
+      </c>
+      <c r="Y62">
+        <v>78.48</v>
+      </c>
+      <c r="Z62">
+        <v>2.59</v>
+      </c>
       <c r="AC62" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6014,22 +7109,25 @@
       <c r="AG62">
         <v>-1.309934616088867</v>
       </c>
-      <c r="AH62" t="s">
-        <v>156</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>688167</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>10.29</v>
@@ -6047,7 +7145,7 @@
         <v>205812.39</v>
       </c>
       <c r="J63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K63">
         <v>6</v>
@@ -6088,8 +7186,23 @@
       <c r="W63">
         <v>-0.44</v>
       </c>
+      <c r="X63">
+        <v>1.58</v>
+      </c>
+      <c r="Y63">
+        <v>165.38</v>
+      </c>
+      <c r="Z63">
+        <v>3.44</v>
+      </c>
       <c r="AC63" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6097,22 +7210,25 @@
       <c r="AG63">
         <v>-3.134617805480957</v>
       </c>
-      <c r="AH63" t="s">
-        <v>156</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688195</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>0.01</v>
@@ -6130,7 +7246,7 @@
         <v>204913.64</v>
       </c>
       <c r="J64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K64">
         <v>20</v>
@@ -6171,8 +7287,23 @@
       <c r="W64">
         <v>-0.78</v>
       </c>
+      <c r="X64">
+        <v>6.81</v>
+      </c>
+      <c r="Y64">
+        <v>115.88</v>
+      </c>
+      <c r="Z64">
+        <v>14.22</v>
+      </c>
       <c r="AC64" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>1</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6180,22 +7311,25 @@
       <c r="AG64">
         <v>1.934108018875122</v>
       </c>
-      <c r="AH64" t="s">
-        <v>156</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688202</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>1.91</v>
@@ -6213,7 +7347,7 @@
         <v>101927.57</v>
       </c>
       <c r="J65" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -6254,8 +7388,23 @@
       <c r="W65">
         <v>0.54</v>
       </c>
+      <c r="X65">
+        <v>3.12</v>
+      </c>
+      <c r="Y65">
+        <v>84.7</v>
+      </c>
+      <c r="Z65">
+        <v>7.72</v>
+      </c>
       <c r="AC65" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>1</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6263,22 +7412,25 @@
       <c r="AG65">
         <v>2.338665723800659</v>
       </c>
-      <c r="AH65" t="s">
-        <v>156</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688228</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>15.11</v>
@@ -6296,7 +7448,7 @@
         <v>116968.28</v>
       </c>
       <c r="J66" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K66">
         <v>3</v>
@@ -6337,8 +7489,23 @@
       <c r="W66">
         <v>-0.36</v>
       </c>
+      <c r="X66">
+        <v>13.71</v>
+      </c>
+      <c r="Y66">
+        <v>188.03</v>
+      </c>
+      <c r="Z66">
+        <v>15.85</v>
+      </c>
       <c r="AC66" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6346,22 +7513,25 @@
       <c r="AG66">
         <v>2.360496759414673</v>
       </c>
-      <c r="AH66" t="s">
-        <v>156</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688234</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>2.69</v>
@@ -6379,7 +7549,7 @@
         <v>242716.85</v>
       </c>
       <c r="J67" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K67">
         <v>4</v>
@@ -6420,8 +7590,23 @@
       <c r="W67">
         <v>0.1</v>
       </c>
+      <c r="X67">
+        <v>-1.94</v>
+      </c>
+      <c r="Y67">
+        <v>94.97</v>
+      </c>
+      <c r="Z67">
+        <v>2.77</v>
+      </c>
       <c r="AC67" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6429,22 +7614,25 @@
       <c r="AG67">
         <v>3.937636852264404</v>
       </c>
-      <c r="AH67" t="s">
-        <v>156</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688256</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>8</v>
@@ -6462,7 +7650,7 @@
         <v>2650924.03</v>
       </c>
       <c r="J68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6503,8 +7691,23 @@
       <c r="W68">
         <v>0.05</v>
       </c>
+      <c r="X68">
+        <v>-3.23</v>
+      </c>
+      <c r="Y68">
+        <v>1529.4</v>
+      </c>
+      <c r="Z68">
+        <v>2.1</v>
+      </c>
       <c r="AC68" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6512,22 +7715,25 @@
       <c r="AG68">
         <v>-2.405709028244019</v>
       </c>
-      <c r="AH68" t="s">
-        <v>156</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>688331</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>-2.6</v>
@@ -6545,7 +7751,7 @@
         <v>75732.67</v>
       </c>
       <c r="J69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K69">
         <v>4</v>
@@ -6586,8 +7792,23 @@
       <c r="W69">
         <v>0.09</v>
       </c>
+      <c r="X69">
+        <v>-1.79</v>
+      </c>
+      <c r="Y69">
+        <v>109.99</v>
+      </c>
+      <c r="Z69">
+        <v>2.5</v>
+      </c>
       <c r="AC69" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6595,22 +7816,25 @@
       <c r="AG69">
         <v>3.576825380325317</v>
       </c>
-      <c r="AH69" t="s">
-        <v>156</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>688343</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>3.21</v>
@@ -6628,7 +7852,7 @@
         <v>234556.52</v>
       </c>
       <c r="J70" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -6669,8 +7893,23 @@
       <c r="W70">
         <v>0.2</v>
       </c>
+      <c r="X70">
+        <v>-2.9</v>
+      </c>
+      <c r="Y70">
+        <v>90.73</v>
+      </c>
+      <c r="Z70">
+        <v>0.55</v>
+      </c>
       <c r="AC70" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6678,22 +7917,25 @@
       <c r="AG70">
         <v>-0.4432623386383057</v>
       </c>
-      <c r="AH70" t="s">
-        <v>156</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>688347</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>3.04</v>
@@ -6711,7 +7953,7 @@
         <v>233536.23</v>
       </c>
       <c r="J71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -6752,8 +7994,23 @@
       <c r="W71">
         <v>0.02</v>
       </c>
+      <c r="X71">
+        <v>2.75</v>
+      </c>
+      <c r="Y71">
+        <v>78.58</v>
+      </c>
+      <c r="Z71">
+        <v>4.47</v>
+      </c>
       <c r="AC71" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6761,22 +8018,25 @@
       <c r="AG71">
         <v>4.426066875457764</v>
       </c>
-      <c r="AH71" t="s">
-        <v>156</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>688353</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>-3.67</v>
@@ -6794,7 +8054,7 @@
         <v>48635.98</v>
       </c>
       <c r="J72" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K72">
         <v>4</v>
@@ -6835,8 +8095,23 @@
       <c r="W72">
         <v>-0.45</v>
       </c>
+      <c r="X72">
+        <v>-1.74</v>
+      </c>
+      <c r="Y72">
+        <v>46.66</v>
+      </c>
+      <c r="Z72">
+        <v>3.25</v>
+      </c>
       <c r="AC72" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6844,22 +8119,25 @@
       <c r="AG72">
         <v>2.292580366134644</v>
       </c>
-      <c r="AH72" t="s">
-        <v>156</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>688388</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>-3.44</v>
@@ -6877,7 +8155,7 @@
         <v>162548.58</v>
       </c>
       <c r="J73" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K73">
         <v>9</v>
@@ -6918,8 +8196,23 @@
       <c r="W73">
         <v>-0.42</v>
       </c>
+      <c r="X73">
+        <v>-2.81</v>
+      </c>
+      <c r="Y73">
+        <v>33.79</v>
+      </c>
+      <c r="Z73">
+        <v>0.27</v>
+      </c>
       <c r="AC73" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -6927,22 +8220,25 @@
       <c r="AG73">
         <v>6.190845966339111</v>
       </c>
-      <c r="AH73" t="s">
-        <v>156</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>688411</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>1.37</v>
@@ -6960,7 +8256,7 @@
         <v>88640.57000000001</v>
       </c>
       <c r="J74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K74">
         <v>9</v>
@@ -7001,8 +8297,23 @@
       <c r="W74">
         <v>0.49</v>
       </c>
+      <c r="X74">
+        <v>8.65</v>
+      </c>
+      <c r="Y74">
+        <v>219</v>
+      </c>
+      <c r="Z74">
+        <v>21.64</v>
+      </c>
       <c r="AC74" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>1</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7010,22 +8321,25 @@
       <c r="AG74">
         <v>5.271562576293945</v>
       </c>
-      <c r="AH74" t="s">
-        <v>156</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>688498</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>-2.91</v>
@@ -7043,7 +8357,7 @@
         <v>146569.29</v>
       </c>
       <c r="J75" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K75">
         <v>3</v>
@@ -7084,8 +8398,23 @@
       <c r="W75">
         <v>-0.44</v>
       </c>
+      <c r="X75">
+        <v>-2.3</v>
+      </c>
+      <c r="Y75">
+        <v>380</v>
+      </c>
+      <c r="Z75">
+        <v>1.14</v>
+      </c>
       <c r="AC75" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7093,22 +8422,25 @@
       <c r="AG75">
         <v>8.634490966796875</v>
       </c>
-      <c r="AH75" t="s">
-        <v>156</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>688499</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>-2.91</v>
@@ -7126,7 +8458,7 @@
         <v>115576.76</v>
       </c>
       <c r="J76" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K76">
         <v>6</v>
@@ -7167,8 +8499,23 @@
       <c r="W76">
         <v>-1.35</v>
       </c>
+      <c r="X76">
+        <v>-1.64</v>
+      </c>
+      <c r="Y76">
+        <v>75.79000000000001</v>
+      </c>
+      <c r="Z76">
+        <v>2.7</v>
+      </c>
       <c r="AC76" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7176,22 +8523,25 @@
       <c r="AG76">
         <v>3.191488981246948</v>
       </c>
-      <c r="AH76" t="s">
-        <v>156</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>688521</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>20</v>
@@ -7209,7 +8559,7 @@
         <v>688601.09</v>
       </c>
       <c r="J77" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K77">
         <v>8</v>
@@ -7250,8 +8600,23 @@
       <c r="W77">
         <v>0.33</v>
       </c>
+      <c r="X77">
+        <v>-1.25</v>
+      </c>
+      <c r="Y77">
+        <v>200</v>
+      </c>
+      <c r="Z77">
+        <v>8.93</v>
+      </c>
       <c r="AC77" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD77">
+        <v>1</v>
+      </c>
+      <c r="AE77">
+        <v>1</v>
       </c>
       <c r="AF77">
         <v>1</v>
@@ -7259,22 +8624,25 @@
       <c r="AG77">
         <v>18.56062126159668</v>
       </c>
-      <c r="AH77" t="s">
-        <v>157</v>
+      <c r="AH77">
+        <v>1</v>
+      </c>
+      <c r="AI77">
+        <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>688629</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>7.7</v>
@@ -7292,7 +8660,7 @@
         <v>203685.18</v>
       </c>
       <c r="J78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -7333,8 +8701,23 @@
       <c r="W78">
         <v>1.09</v>
       </c>
+      <c r="X78">
+        <v>-1.47</v>
+      </c>
+      <c r="Y78">
+        <v>88.48999999999999</v>
+      </c>
+      <c r="Z78">
+        <v>-0.24</v>
+      </c>
       <c r="AC78" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7342,22 +8725,25 @@
       <c r="AG78">
         <v>80.93559265136719</v>
       </c>
-      <c r="AH78" t="s">
-        <v>156</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>688630</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>-0.57</v>
@@ -7375,7 +8761,7 @@
         <v>121981.38</v>
       </c>
       <c r="J79" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -7416,8 +8802,23 @@
       <c r="W79">
         <v>0</v>
       </c>
+      <c r="X79">
+        <v>-3.05</v>
+      </c>
+      <c r="Y79">
+        <v>152.6</v>
+      </c>
+      <c r="Z79">
+        <v>0.97</v>
+      </c>
       <c r="AC79" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7425,8 +8826,11 @@
       <c r="AG79">
         <v>5.535810470581055</v>
       </c>
-      <c r="AH79" t="s">
-        <v>156</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
